--- a/data/trans_orig/ProblemasDormirP33b-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>24914</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11258</v>
+        <v>10680</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44504</v>
+        <v>44748</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0610937706377449</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02760603784098903</v>
+        <v>0.02618876268058203</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1091332691799875</v>
+        <v>0.1097324390701155</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -762,19 +762,19 @@
         <v>32413</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19119</v>
+        <v>18633</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51059</v>
+        <v>51044</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08941174131323536</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05273974054639428</v>
+        <v>0.05139920050651752</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1408484330583478</v>
+        <v>0.1408051114567308</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -783,19 +783,19 @@
         <v>57326</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38251</v>
+        <v>37763</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83789</v>
+        <v>80991</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07442044380641957</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04965708164034588</v>
+        <v>0.04902365995475513</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1087741098013943</v>
+        <v>0.1051415765989319</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>382879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>363289</v>
+        <v>363045</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>396535</v>
+        <v>397113</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9389062293622553</v>
+        <v>0.9389062293622552</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8908667308200122</v>
+        <v>0.8902675609298845</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9723939621590107</v>
+        <v>0.973811237319418</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>191</v>
@@ -833,19 +833,19 @@
         <v>330099</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>311453</v>
+        <v>311468</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>343393</v>
+        <v>343879</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9105882586867646</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8591515669416522</v>
+        <v>0.8591948885432692</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9472602594536057</v>
+        <v>0.9486007994934824</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>353</v>
@@ -854,19 +854,19 @@
         <v>712979</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>686516</v>
+        <v>689314</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>732054</v>
+        <v>732542</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9255795561935806</v>
+        <v>0.9255795561935805</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8912258901986051</v>
+        <v>0.8948584234010681</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9503429183596537</v>
+        <v>0.9509763400452448</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>31522</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19453</v>
+        <v>19114</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50288</v>
+        <v>49500</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06609958186212449</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04079122889411891</v>
+        <v>0.04008152998454646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1054490363296476</v>
+        <v>0.10379804914147</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -979,19 +979,19 @@
         <v>52070</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39445</v>
+        <v>38968</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70216</v>
+        <v>67627</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1037809363483652</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07861710724313116</v>
+        <v>0.07766738379904847</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1399467075512693</v>
+        <v>0.1347864392215938</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -1000,19 +1000,19 @@
         <v>83593</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65671</v>
+        <v>65123</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107189</v>
+        <v>106744</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08541852972337616</v>
+        <v>0.08541852972337617</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.067105161499029</v>
+        <v>0.06654583777457412</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1095306561853855</v>
+        <v>0.1090756073912745</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>445368</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>426602</v>
+        <v>427390</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>457437</v>
+        <v>457776</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9339004181378755</v>
+        <v>0.9339004181378756</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.894550963670352</v>
+        <v>0.89620195085853</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9592087711058809</v>
+        <v>0.9599184700154536</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>415</v>
@@ -1050,19 +1050,19 @@
         <v>449663</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>431517</v>
+        <v>434106</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>462288</v>
+        <v>462765</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8962190636516347</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.860053292448731</v>
+        <v>0.8652135607784063</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9213828927568689</v>
+        <v>0.9223326162009515</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>699</v>
@@ -1071,19 +1071,19 @@
         <v>895030</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>871434</v>
+        <v>871879</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>912952</v>
+        <v>913500</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9145814702766238</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8904693438146145</v>
+        <v>0.8909243926087255</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9328948385009709</v>
+        <v>0.9334541622254258</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>60100</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44864</v>
+        <v>46048</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76492</v>
+        <v>78917</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09680535182416419</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07226366125299929</v>
+        <v>0.07417082309167422</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1232083940395613</v>
+        <v>0.127113799765174</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>117</v>
@@ -1196,19 +1196,19 @@
         <v>88424</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73375</v>
+        <v>74674</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>103047</v>
+        <v>104297</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1418879636595782</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1177406250970493</v>
+        <v>0.1198255500623278</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.165352635892162</v>
+        <v>0.1673583182161112</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>168</v>
@@ -1217,19 +1217,19 @@
         <v>148524</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126819</v>
+        <v>127116</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>171545</v>
+        <v>170995</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1193893439765297</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1019425208158249</v>
+        <v>0.1021810712625507</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1378945524613509</v>
+        <v>0.1374523948594604</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>560737</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>544345</v>
+        <v>541920</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>575973</v>
+        <v>574789</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9031946481758359</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8767916059604388</v>
+        <v>0.8728862002348262</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9277363387470009</v>
+        <v>0.925829176908326</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>731</v>
@@ -1267,19 +1267,19 @@
         <v>534769</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>520146</v>
+        <v>518896</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>549818</v>
+        <v>548519</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8581120363404218</v>
+        <v>0.8581120363404217</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.834647364107838</v>
+        <v>0.8326416817838889</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8822593749029508</v>
+        <v>0.8801744499376727</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1226</v>
@@ -1288,19 +1288,19 @@
         <v>1095505</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1072484</v>
+        <v>1073034</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1117210</v>
+        <v>1116913</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8806106560234702</v>
+        <v>0.8806106560234701</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8621054475386489</v>
+        <v>0.8625476051405396</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.898057479184175</v>
+        <v>0.8978189287374491</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>86182</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68951</v>
+        <v>69351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107346</v>
+        <v>105283</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1230091020171004</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0984142814764143</v>
+        <v>0.09898506659867673</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1532168450820532</v>
+        <v>0.1502722863169907</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>214</v>
@@ -1413,19 +1413,19 @@
         <v>145261</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>127229</v>
+        <v>128597</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161600</v>
+        <v>162504</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1971288283450726</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.172657802567456</v>
+        <v>0.1745143767506376</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2193008314949756</v>
+        <v>0.220528240004582</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>290</v>
@@ -1434,19 +1434,19 @@
         <v>231444</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>206147</v>
+        <v>205537</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>258670</v>
+        <v>255947</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.161004011349544</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1434062298904747</v>
+        <v>0.1429818720249173</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1799440130550437</v>
+        <v>0.1780492852735538</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>614435</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>593271</v>
+        <v>595334</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>631666</v>
+        <v>631266</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8769908979828999</v>
+        <v>0.8769908979828996</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8467831549179468</v>
+        <v>0.8497277136830093</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9015857185235858</v>
+        <v>0.9010149334013233</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>927</v>
@@ -1484,19 +1484,19 @@
         <v>591625</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>575286</v>
+        <v>574382</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>609657</v>
+        <v>608289</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8028711716549274</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7806991685050245</v>
+        <v>0.7794717599954182</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8273421974325441</v>
+        <v>0.8254856232493625</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1516</v>
@@ -1505,19 +1505,19 @@
         <v>1206060</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1178834</v>
+        <v>1181557</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1231357</v>
+        <v>1231967</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.838995988650456</v>
+        <v>0.8389959886504561</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8200559869449563</v>
+        <v>0.821950714726446</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8565937701095254</v>
+        <v>0.8570181279750826</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>95843</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80637</v>
+        <v>79647</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>114760</v>
+        <v>113421</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1572890137851695</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1323344635131846</v>
+        <v>0.1307093743820752</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1883332746880918</v>
+        <v>0.186135001359432</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>261</v>
@@ -1630,19 +1630,19 @@
         <v>168478</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>151799</v>
+        <v>151667</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>185642</v>
+        <v>185817</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2767124303918588</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2493183136288737</v>
+        <v>0.2491024909036766</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.304903476168184</v>
+        <v>0.3051903456375093</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>368</v>
@@ -1651,19 +1651,19 @@
         <v>264321</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>238787</v>
+        <v>240862</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>292715</v>
+        <v>289443</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2169766529698929</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1960161072396947</v>
+        <v>0.1977190066364655</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.240284561047873</v>
+        <v>0.2375984048974348</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>513503</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>494586</v>
+        <v>495925</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>528709</v>
+        <v>529699</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8427109862148304</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8116667253119086</v>
+        <v>0.8138649986405679</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8676655364868151</v>
+        <v>0.8692906256179248</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>741</v>
@@ -1701,19 +1701,19 @@
         <v>440377</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>423213</v>
+        <v>423038</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>457056</v>
+        <v>457188</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7232875696081411</v>
+        <v>0.7232875696081412</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6950965238318156</v>
+        <v>0.6948096543624905</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7506816863711263</v>
+        <v>0.7508975090963232</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1297</v>
@@ -1722,19 +1722,19 @@
         <v>953881</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>925487</v>
+        <v>928759</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>979415</v>
+        <v>977340</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7830233470301071</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.759715438952127</v>
+        <v>0.762401595102565</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8039838927603054</v>
+        <v>0.8022809933635346</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>74938</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62716</v>
+        <v>62240</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88422</v>
+        <v>88038</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1840856277952824</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1540641271510713</v>
+        <v>0.1528940260983415</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2172107666802124</v>
+        <v>0.2162682613826436</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>221</v>
@@ -1847,19 +1847,19 @@
         <v>124084</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>110248</v>
+        <v>109222</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>137798</v>
+        <v>136571</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2825441225156372</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2510394875793271</v>
+        <v>0.2487024434289541</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3137714180502057</v>
+        <v>0.3109780485371782</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>328</v>
@@ -1868,19 +1868,19 @@
         <v>199021</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>178871</v>
+        <v>180417</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>218237</v>
+        <v>219031</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2351814628247482</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2113705004184615</v>
+        <v>0.2131971653245524</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2578889294786816</v>
+        <v>0.2588271366364391</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>332142</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>318658</v>
+        <v>319042</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>344364</v>
+        <v>344840</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8159143722047175</v>
+        <v>0.8159143722047177</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7827892333197873</v>
+        <v>0.7837317386173562</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8459358728489287</v>
+        <v>0.8471059739016581</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>606</v>
@@ -1918,19 +1918,19 @@
         <v>315082</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>301368</v>
+        <v>302595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>328918</v>
+        <v>329944</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7174558774843628</v>
+        <v>0.7174558774843627</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.686228581949794</v>
+        <v>0.6890219514628216</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7489605124206727</v>
+        <v>0.7512975565710456</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1069</v>
@@ -1939,19 +1939,19 @@
         <v>647225</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>628009</v>
+        <v>627215</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>667375</v>
+        <v>665829</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7648185371752517</v>
+        <v>0.7648185371752519</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7421110705213185</v>
+        <v>0.7411728633635608</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7886294995815385</v>
+        <v>0.7868028346754476</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>84368</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>72024</v>
+        <v>71297</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97653</v>
+        <v>98336</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2719799603303809</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.232187474456851</v>
+        <v>0.2298425932792476</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.314810167083278</v>
+        <v>0.3170099147243977</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>302</v>
@@ -2064,19 +2064,19 @@
         <v>167387</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>151914</v>
+        <v>152135</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>182757</v>
+        <v>183059</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3602743287891218</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3269726528250088</v>
+        <v>0.3274466437832042</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3933576135387076</v>
+        <v>0.3940060164484103</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>428</v>
@@ -2085,19 +2085,19 @@
         <v>251754</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>232509</v>
+        <v>233168</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>271797</v>
+        <v>271665</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3249251944924401</v>
+        <v>0.32492519449244</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3000867063772699</v>
+        <v>0.3009369823256548</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.350793611757617</v>
+        <v>0.3506233421904412</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>225830</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>212545</v>
+        <v>211862</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>238174</v>
+        <v>238901</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.728020039669619</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6851898329167219</v>
+        <v>0.6829900852756028</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.767812525543149</v>
+        <v>0.7701574067207525</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>579</v>
@@ -2135,19 +2135,19 @@
         <v>297222</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>281852</v>
+        <v>281550</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>312695</v>
+        <v>312474</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6397256712108782</v>
+        <v>0.639725671210878</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6066423864612922</v>
+        <v>0.6059939835515896</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6730273471749912</v>
+        <v>0.6725533562167959</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>911</v>
@@ -2156,19 +2156,19 @@
         <v>523053</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>503010</v>
+        <v>503142</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>542298</v>
+        <v>541639</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.67507480550756</v>
+        <v>0.6750748055075598</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6492063882423831</v>
+        <v>0.6493766578095589</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6999132936227301</v>
+        <v>0.6990630176743452</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>457867</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>418444</v>
+        <v>418896</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>504002</v>
+        <v>502177</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1296060271455767</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1184468295219726</v>
+        <v>0.1185745432928703</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1426650523473871</v>
+        <v>0.1421486475217037</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1177</v>
@@ -2281,19 +2281,19 @@
         <v>778116</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>736127</v>
+        <v>737737</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>822233</v>
+        <v>821738</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.208222124193384</v>
+        <v>0.2082221241933839</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1969858243523966</v>
+        <v>0.1974166045319189</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2200274891240126</v>
+        <v>0.2198950086213996</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1672</v>
@@ -2302,19 +2302,19 @@
         <v>1235984</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1176748</v>
+        <v>1169080</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1295028</v>
+        <v>1298645</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.170018162692412</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1618698622266378</v>
+        <v>0.160815124806613</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1781401317345386</v>
+        <v>0.1786375909643597</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>3074895</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3028760</v>
+        <v>3030585</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3114318</v>
+        <v>3113866</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8703939728544235</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8573349476526134</v>
+        <v>0.8578513524782964</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8815531704780274</v>
+        <v>0.8814254567071298</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4190</v>
@@ -2352,19 +2352,19 @@
         <v>2958838</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2914721</v>
+        <v>2915216</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3000827</v>
+        <v>2999217</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7917778758066162</v>
+        <v>0.7917778758066161</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7799725108759875</v>
+        <v>0.7801049913786006</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8030141756476036</v>
+        <v>0.8025833954680817</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7071</v>
@@ -2373,19 +2373,19 @@
         <v>6033732</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5974688</v>
+        <v>5971071</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6092968</v>
+        <v>6100636</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8299818373075879</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8218598682654613</v>
+        <v>0.8213624090356404</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8381301377733622</v>
+        <v>0.8391848751933871</v>
       </c>
     </row>
     <row r="27">
